--- a/Code/Results/Cases/Case_3_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9903706594983713</v>
+        <v>1.032986268198313</v>
       </c>
       <c r="D2">
-        <v>1.009664315124243</v>
+        <v>1.035166563004088</v>
       </c>
       <c r="E2">
-        <v>1.003338966079621</v>
+        <v>1.041911371863755</v>
       </c>
       <c r="F2">
-        <v>1.004260359649285</v>
+        <v>1.051950751342542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038578738747806</v>
+        <v>1.031427523257402</v>
       </c>
       <c r="J2">
-        <v>1.012843247202266</v>
+        <v>1.038113475487467</v>
       </c>
       <c r="K2">
-        <v>1.020990632804571</v>
+        <v>1.037963946410103</v>
       </c>
       <c r="L2">
-        <v>1.01475197897824</v>
+        <v>1.044689548032033</v>
       </c>
       <c r="M2">
-        <v>1.015660658283056</v>
+        <v>1.054700832904487</v>
       </c>
       <c r="N2">
-        <v>1.007683926016494</v>
+        <v>1.01658377132681</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.996578857872596</v>
+        <v>1.034249849746943</v>
       </c>
       <c r="D3">
-        <v>1.014207458274742</v>
+        <v>1.036098652130245</v>
       </c>
       <c r="E3">
-        <v>1.008925997136965</v>
+        <v>1.043108013993592</v>
       </c>
       <c r="F3">
-        <v>1.010916460091128</v>
+        <v>1.05340289474558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040028317805298</v>
+        <v>1.031643089641752</v>
       </c>
       <c r="J3">
-        <v>1.017163223159364</v>
+        <v>1.039017988224845</v>
       </c>
       <c r="K3">
-        <v>1.024661722972775</v>
+        <v>1.038705047700663</v>
       </c>
       <c r="L3">
-        <v>1.019445928023962</v>
+        <v>1.045695902418718</v>
       </c>
       <c r="M3">
-        <v>1.02141154250314</v>
+        <v>1.055964082948603</v>
       </c>
       <c r="N3">
-        <v>1.009179755425044</v>
+        <v>1.016891237323633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000489646661613</v>
+        <v>1.035066822276832</v>
       </c>
       <c r="D4">
-        <v>1.017071008747535</v>
+        <v>1.036700926404075</v>
       </c>
       <c r="E4">
-        <v>1.012451825244755</v>
+        <v>1.043882093511119</v>
       </c>
       <c r="F4">
-        <v>1.015118617637926</v>
+        <v>1.054342707907252</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040929000861654</v>
+        <v>1.031780855164349</v>
       </c>
       <c r="J4">
-        <v>1.019880835515514</v>
+        <v>1.0396021543089</v>
       </c>
       <c r="K4">
-        <v>1.02696767674865</v>
+        <v>1.039183119822329</v>
       </c>
       <c r="L4">
-        <v>1.022402255184188</v>
+        <v>1.046346287273835</v>
       </c>
       <c r="M4">
-        <v>1.025037935403181</v>
+        <v>1.056781153963136</v>
       </c>
       <c r="N4">
-        <v>1.010119927587238</v>
+        <v>1.017089616823679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002109516202666</v>
+        <v>1.035410125374846</v>
       </c>
       <c r="D5">
-        <v>1.018257400716188</v>
+        <v>1.036953920535579</v>
       </c>
       <c r="E5">
-        <v>1.013913711098219</v>
+        <v>1.044207464577027</v>
       </c>
       <c r="F5">
-        <v>1.016861375873942</v>
+        <v>1.054737851951341</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041299018318631</v>
+        <v>1.031838360383018</v>
       </c>
       <c r="J5">
-        <v>1.021005541251372</v>
+        <v>1.039847473061321</v>
       </c>
       <c r="K5">
-        <v>1.027921153462934</v>
+        <v>1.039383750886628</v>
       </c>
       <c r="L5">
-        <v>1.023626597006853</v>
+        <v>1.046619521412014</v>
       </c>
       <c r="M5">
-        <v>1.026540863195152</v>
+        <v>1.057124573293156</v>
       </c>
       <c r="N5">
-        <v>1.010508815246248</v>
+        <v>1.017172879321063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002380112927654</v>
+        <v>1.035467758648192</v>
       </c>
       <c r="D6">
-        <v>1.018455600139382</v>
+        <v>1.036996387561658</v>
       </c>
       <c r="E6">
-        <v>1.014158001844127</v>
+        <v>1.044262092839255</v>
       </c>
       <c r="F6">
-        <v>1.017152630214151</v>
+        <v>1.054804201213736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041360648099506</v>
+        <v>1.03184799165006</v>
       </c>
       <c r="J6">
-        <v>1.02119336461608</v>
+        <v>1.039888647698626</v>
       </c>
       <c r="K6">
-        <v>1.028080330442271</v>
+        <v>1.03941741721646</v>
       </c>
       <c r="L6">
-        <v>1.023831109273674</v>
+        <v>1.046665387690506</v>
       </c>
       <c r="M6">
-        <v>1.026791974584269</v>
+        <v>1.05718223046745</v>
       </c>
       <c r="N6">
-        <v>1.010573745913852</v>
+        <v>1.017186851488328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000511385067677</v>
+        <v>1.035071410103421</v>
       </c>
       <c r="D7">
-        <v>1.017086928915558</v>
+        <v>1.036704307715875</v>
       </c>
       <c r="E7">
-        <v>1.012471437788189</v>
+        <v>1.043886441336164</v>
       </c>
       <c r="F7">
-        <v>1.015141996492833</v>
+        <v>1.054347987653668</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040933978582792</v>
+        <v>1.031781625167898</v>
       </c>
       <c r="J7">
-        <v>1.019895932699389</v>
+        <v>1.0396054333075</v>
       </c>
       <c r="K7">
-        <v>1.026980478932697</v>
+        <v>1.039185802039688</v>
       </c>
       <c r="L7">
-        <v>1.022418686457342</v>
+        <v>1.046349938976186</v>
       </c>
       <c r="M7">
-        <v>1.02505810111549</v>
+        <v>1.056785743048924</v>
       </c>
       <c r="N7">
-        <v>1.010125148563235</v>
+        <v>1.017090729915865</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9924915346344674</v>
+        <v>1.033413437897558</v>
       </c>
       <c r="D8">
-        <v>1.011215955829992</v>
+        <v>1.035481743704682</v>
       </c>
       <c r="E8">
-        <v>1.005246267792862</v>
+        <v>1.042315831448132</v>
       </c>
       <c r="F8">
-        <v>1.006532301954311</v>
+        <v>1.05244147509615</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039076538515687</v>
+        <v>1.031500731404686</v>
       </c>
       <c r="J8">
-        <v>1.014319806351474</v>
+        <v>1.038419391733524</v>
       </c>
       <c r="K8">
-        <v>1.022246113289659</v>
+        <v>1.038214710308395</v>
       </c>
       <c r="L8">
-        <v>1.01635564092189</v>
+        <v>1.045029815980832</v>
       </c>
       <c r="M8">
-        <v>1.017624510161989</v>
+        <v>1.055127825702143</v>
       </c>
       <c r="N8">
-        <v>1.008195363754398</v>
+        <v>1.016687799600382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774848963264301</v>
+        <v>1.030486759789462</v>
       </c>
       <c r="D9">
-        <v>1.00024860711789</v>
+        <v>1.033320856116463</v>
       </c>
       <c r="E9">
-        <v>0.9917803791926398</v>
+        <v>1.039546352888951</v>
       </c>
       <c r="F9">
-        <v>0.9904968413300643</v>
+        <v>1.049083164722806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035503291119097</v>
+        <v>1.030992564562541</v>
       </c>
       <c r="J9">
-        <v>1.003858564362083</v>
+        <v>1.036320809255022</v>
       </c>
       <c r="K9">
-        <v>1.013337652132235</v>
+        <v>1.036492198446624</v>
       </c>
       <c r="L9">
-        <v>1.005008236751085</v>
+        <v>1.042697405241559</v>
       </c>
       <c r="M9">
-        <v>1.003746005606543</v>
+        <v>1.052203645993665</v>
       </c>
       <c r="N9">
-        <v>1.004568865621442</v>
+        <v>1.0159733808226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9667993214677097</v>
+        <v>1.028531991541223</v>
       </c>
       <c r="D10">
-        <v>0.9924594877395229</v>
+        <v>1.031875749828289</v>
       </c>
       <c r="E10">
-        <v>0.9822326259246059</v>
+        <v>1.03769861467391</v>
       </c>
       <c r="F10">
-        <v>0.9791305739467666</v>
+        <v>1.046844871277783</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032896785506723</v>
+        <v>1.030644884502886</v>
       </c>
       <c r="J10">
-        <v>0.99639505887201</v>
+        <v>1.034915823005265</v>
       </c>
       <c r="K10">
-        <v>1.006966236342565</v>
+        <v>1.035336148870178</v>
       </c>
       <c r="L10">
-        <v>0.9969302608794484</v>
+        <v>1.041138155255976</v>
       </c>
       <c r="M10">
-        <v>0.9938871405400548</v>
+        <v>1.050252164685198</v>
       </c>
       <c r="N10">
-        <v>1.001978309257245</v>
+        <v>1.015494102358212</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9619870225471179</v>
+        <v>1.02768464283048</v>
       </c>
       <c r="D11">
-        <v>0.9889583584824868</v>
+        <v>1.031248910058366</v>
       </c>
       <c r="E11">
-        <v>0.9779434689407314</v>
+        <v>1.036898149275331</v>
       </c>
       <c r="F11">
-        <v>0.9740242929416487</v>
+        <v>1.04587575080701</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031709200762064</v>
+        <v>1.030492216656582</v>
       </c>
       <c r="J11">
-        <v>0.9930313856980599</v>
+        <v>1.034306011602713</v>
       </c>
       <c r="K11">
-        <v>1.004091551927358</v>
+        <v>1.034833716521374</v>
       </c>
       <c r="L11">
-        <v>0.9932936810904897</v>
+        <v>1.040461926432175</v>
       </c>
       <c r="M11">
-        <v>0.989453281157094</v>
+        <v>1.04940662531169</v>
       </c>
       <c r="N11">
-        <v>1.000810225758213</v>
+        <v>1.015285849282287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9601693786891743</v>
+        <v>1.0273697572679</v>
       </c>
       <c r="D12">
-        <v>0.9876371461996002</v>
+        <v>1.031015906710282</v>
       </c>
       <c r="E12">
-        <v>0.9763251295041596</v>
+        <v>1.036600759969368</v>
       </c>
       <c r="F12">
-        <v>0.9720975223014817</v>
+        <v>1.045515783050175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031258671496937</v>
+        <v>1.030435189827482</v>
       </c>
       <c r="J12">
-        <v>0.9917606246453127</v>
+        <v>1.034079281008213</v>
       </c>
       <c r="K12">
-        <v>1.003005094627631</v>
+        <v>1.034646810066543</v>
       </c>
       <c r="L12">
-        <v>0.9919204064503163</v>
+        <v>1.040210582155036</v>
       </c>
       <c r="M12">
-        <v>0.9877795511335939</v>
+        <v>1.0490924699562</v>
       </c>
       <c r="N12">
-        <v>1.000368869931503</v>
+        <v>1.015208385493123</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9605606730351561</v>
+        <v>1.027437307805962</v>
       </c>
       <c r="D13">
-        <v>0.9879215140675081</v>
+        <v>1.03106589431551</v>
       </c>
       <c r="E13">
-        <v>0.9766734396052861</v>
+        <v>1.036664553790902</v>
       </c>
       <c r="F13">
-        <v>0.9725122222230589</v>
+        <v>1.045592997124983</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031355746756055</v>
+        <v>1.030447436730971</v>
       </c>
       <c r="J13">
-        <v>0.9920341993001452</v>
+        <v>1.034127925465872</v>
       </c>
       <c r="K13">
-        <v>1.003239010253069</v>
+        <v>1.034686914870197</v>
       </c>
       <c r="L13">
-        <v>0.9922160243981547</v>
+        <v>1.040264503770864</v>
       </c>
       <c r="M13">
-        <v>0.9881398194475699</v>
+        <v>1.049159861229268</v>
       </c>
       <c r="N13">
-        <v>1.000463889485916</v>
+        <v>1.015225006698938</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.961837404579218</v>
+        <v>1.027658617223031</v>
       </c>
       <c r="D14">
-        <v>0.9888495786172363</v>
+        <v>1.031229653350332</v>
       </c>
       <c r="E14">
-        <v>0.9778102212715308</v>
+        <v>1.036873568242548</v>
       </c>
       <c r="F14">
-        <v>0.9738656533294293</v>
+        <v>1.04584599564912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031672155177508</v>
+        <v>1.03048750931647</v>
       </c>
       <c r="J14">
-        <v>0.9929267889825633</v>
+        <v>1.034287274474085</v>
       </c>
       <c r="K14">
-        <v>1.004002133761363</v>
+        <v>1.0348182725134</v>
       </c>
       <c r="L14">
-        <v>0.9931806346263754</v>
+        <v>1.040441153574154</v>
       </c>
       <c r="M14">
-        <v>0.9893154892516451</v>
+        <v>1.049380658876586</v>
       </c>
       <c r="N14">
-        <v>1.000773898855337</v>
+        <v>1.015279448336148</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9626199740810695</v>
+        <v>1.027794954249461</v>
       </c>
       <c r="D15">
-        <v>0.9894185960172147</v>
+        <v>1.031330528487545</v>
       </c>
       <c r="E15">
-        <v>0.9785072368726269</v>
+        <v>1.037002340785579</v>
       </c>
       <c r="F15">
-        <v>0.9746954880490958</v>
+        <v>1.046001877144919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03186584079116</v>
+        <v>1.030512157042455</v>
       </c>
       <c r="J15">
-        <v>0.9934738664120839</v>
+        <v>1.034385425492527</v>
       </c>
       <c r="K15">
-        <v>1.004469804828995</v>
+        <v>1.034899169036536</v>
       </c>
       <c r="L15">
-        <v>0.9937719310004103</v>
+        <v>1.040549971686759</v>
       </c>
       <c r="M15">
-        <v>0.9900362430678142</v>
+        <v>1.049516688292806</v>
       </c>
       <c r="N15">
-        <v>1.000963898705201</v>
+        <v>1.015312977115036</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9671146023747498</v>
+        <v>1.028588207524672</v>
       </c>
       <c r="D16">
-        <v>0.9926890210198653</v>
+        <v>1.031917327789619</v>
       </c>
       <c r="E16">
-        <v>0.9825138632460159</v>
+        <v>1.037751730581286</v>
       </c>
       <c r="F16">
-        <v>0.9794653779244576</v>
+        <v>1.046909189808487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032974313892463</v>
+        <v>1.030654971839827</v>
       </c>
       <c r="J16">
-        <v>0.996615388996415</v>
+        <v>1.034956263547091</v>
       </c>
       <c r="K16">
-        <v>1.007154474090833</v>
+        <v>1.035369454393803</v>
       </c>
       <c r="L16">
-        <v>0.9971685491925343</v>
+        <v>1.041183011674851</v>
       </c>
       <c r="M16">
-        <v>0.9941777591858681</v>
+        <v>1.050308268734535</v>
       </c>
       <c r="N16">
-        <v>1.002054811895274</v>
+        <v>1.015507908141915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9698827936019965</v>
+        <v>1.029085544816272</v>
       </c>
       <c r="D17">
-        <v>0.9947051237320371</v>
+        <v>1.032285115788914</v>
       </c>
       <c r="E17">
-        <v>0.9849843727589698</v>
+        <v>1.03822169822583</v>
       </c>
       <c r="F17">
-        <v>0.9824064081069294</v>
+        <v>1.047478340015742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033653476294763</v>
+        <v>1.030743987707263</v>
       </c>
       <c r="J17">
-        <v>0.9985496383012579</v>
+        <v>1.035313946934432</v>
       </c>
       <c r="K17">
-        <v>1.008806632637949</v>
+        <v>1.035663953876544</v>
       </c>
       <c r="L17">
-        <v>0.9992609042732475</v>
+        <v>1.041579814122967</v>
       </c>
       <c r="M17">
-        <v>0.9967301129262469</v>
+        <v>1.050804660159568</v>
       </c>
       <c r="N17">
-        <v>1.002726356869859</v>
+        <v>1.015629989270733</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9714797142764535</v>
+        <v>1.029375544646529</v>
       </c>
       <c r="D18">
-        <v>0.9958688002285063</v>
+        <v>1.032499534385756</v>
       </c>
       <c r="E18">
-        <v>0.986410569258381</v>
+        <v>1.038495785717937</v>
       </c>
       <c r="F18">
-        <v>0.9841042194698295</v>
+        <v>1.047810323285475</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034043972542331</v>
+        <v>1.030795704645442</v>
       </c>
       <c r="J18">
-        <v>0.9996652354272703</v>
+        <v>1.035522438548721</v>
       </c>
       <c r="K18">
-        <v>1.009759226633993</v>
+        <v>1.035835551572518</v>
       </c>
       <c r="L18">
-        <v>1.000468070690493</v>
+        <v>1.041811159892211</v>
       </c>
       <c r="M18">
-        <v>0.9982030943813812</v>
+        <v>1.051094145522812</v>
       </c>
       <c r="N18">
-        <v>1.003113622522008</v>
+        <v>1.015701127487368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.972021283147292</v>
+        <v>1.029474412190899</v>
       </c>
       <c r="D19">
-        <v>0.9962635420889479</v>
+        <v>1.032572627680166</v>
       </c>
       <c r="E19">
-        <v>0.9868944072613868</v>
+        <v>1.038589236347893</v>
       </c>
       <c r="F19">
-        <v>0.9846802037156639</v>
+        <v>1.047923522425471</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03417617950454</v>
+        <v>1.030813304116361</v>
       </c>
       <c r="J19">
-        <v>1.000043528625148</v>
+        <v>1.035593505295812</v>
       </c>
       <c r="K19">
-        <v>1.010082193256292</v>
+        <v>1.035894031672245</v>
       </c>
       <c r="L19">
-        <v>1.000877479548931</v>
+        <v>1.041890025545902</v>
       </c>
       <c r="M19">
-        <v>0.9987027271368391</v>
+        <v>1.051192843959849</v>
       </c>
       <c r="N19">
-        <v>1.003244932518669</v>
+        <v>1.015725371992653</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9695876413396007</v>
+        <v>1.02903219442696</v>
       </c>
       <c r="D20">
-        <v>0.9944900953626448</v>
+        <v>1.032245666588642</v>
       </c>
       <c r="E20">
-        <v>0.9847208552752766</v>
+        <v>1.038171278965073</v>
       </c>
       <c r="F20">
-        <v>0.9820927042333399</v>
+        <v>1.047417274835204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03358119655675</v>
+        <v>1.030734458305938</v>
       </c>
       <c r="J20">
-        <v>0.9983434272520719</v>
+        <v>1.035275585295484</v>
       </c>
       <c r="K20">
-        <v>1.008630526690201</v>
+        <v>1.035632375385696</v>
       </c>
       <c r="L20">
-        <v>0.9990377981236679</v>
+        <v>1.041537251588855</v>
       </c>
       <c r="M20">
-        <v>0.9964579139095945</v>
+        <v>1.050751407399767</v>
       </c>
       <c r="N20">
-        <v>1.002654768733233</v>
+        <v>1.015616898330354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9614622907049444</v>
+        <v>1.027593451083292</v>
       </c>
       <c r="D21">
-        <v>0.9885768715910597</v>
+        <v>1.031181435026421</v>
       </c>
       <c r="E21">
-        <v>0.9774761779593226</v>
+        <v>1.03681202040183</v>
       </c>
       <c r="F21">
-        <v>0.9734679517445614</v>
+        <v>1.045771493740565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031579245196822</v>
+        <v>1.03047571775557</v>
       </c>
       <c r="J21">
-        <v>0.992664545806897</v>
+        <v>1.034240356243374</v>
       </c>
       <c r="K21">
-        <v>1.003777939233992</v>
+        <v>1.034779598726402</v>
       </c>
       <c r="L21">
-        <v>0.9928972157750643</v>
+        <v>1.040389139128025</v>
       </c>
       <c r="M21">
-        <v>0.9889700408900609</v>
+        <v>1.049315641834275</v>
       </c>
       <c r="N21">
-        <v>1.00068281964388</v>
+        <v>1.015263419655261</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9561778404234029</v>
+        <v>1.026688029385771</v>
       </c>
       <c r="D22">
-        <v>0.9847381800494975</v>
+        <v>1.030511342336554</v>
       </c>
       <c r="E22">
-        <v>0.9727745317883427</v>
+        <v>1.035957047063707</v>
       </c>
       <c r="F22">
-        <v>0.9678698957648099</v>
+        <v>1.044736762533317</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03026579250567</v>
+        <v>1.030311190209265</v>
       </c>
       <c r="J22">
-        <v>0.988969642509951</v>
+        <v>1.033588195423617</v>
       </c>
       <c r="K22">
-        <v>1.000618162998691</v>
+        <v>1.034241799104545</v>
       </c>
       <c r="L22">
-        <v>0.988905336822364</v>
+        <v>1.039666331929625</v>
       </c>
       <c r="M22">
-        <v>0.9841059065613195</v>
+        <v>1.048412428824665</v>
       </c>
       <c r="N22">
-        <v>0.9993994172032644</v>
+        <v>1.015040540665039</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9589967177557512</v>
+        <v>1.027168090298826</v>
       </c>
       <c r="D23">
-        <v>0.9867851202214555</v>
+        <v>1.030866663584071</v>
       </c>
       <c r="E23">
-        <v>0.9752815457822902</v>
+        <v>1.036410319236707</v>
       </c>
       <c r="F23">
-        <v>0.9708550000539343</v>
+        <v>1.045285291181911</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030967467943059</v>
+        <v>1.030398584684002</v>
       </c>
       <c r="J23">
-        <v>0.9909407224625919</v>
+        <v>1.033934039609305</v>
       </c>
       <c r="K23">
-        <v>1.002303991182905</v>
+        <v>1.034527051563045</v>
       </c>
       <c r="L23">
-        <v>0.9910345254033264</v>
+        <v>1.040049596134669</v>
       </c>
       <c r="M23">
-        <v>0.9867000186054599</v>
+        <v>1.04889128693413</v>
       </c>
       <c r="N23">
-        <v>1.00008408854968</v>
+        <v>1.01515875329685</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9697210625278475</v>
+        <v>1.029056301445025</v>
       </c>
       <c r="D24">
-        <v>0.994587295275385</v>
+        <v>1.032263492311452</v>
       </c>
       <c r="E24">
-        <v>0.9848399731110964</v>
+        <v>1.038194061371979</v>
       </c>
       <c r="F24">
-        <v>0.9822345078562353</v>
+        <v>1.047444867538138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033613874071334</v>
+        <v>1.030738764864118</v>
       </c>
       <c r="J24">
-        <v>0.9984366440289175</v>
+        <v>1.035292919698437</v>
       </c>
       <c r="K24">
-        <v>1.008710135540644</v>
+        <v>1.035646644899073</v>
       </c>
       <c r="L24">
-        <v>0.9991386510727169</v>
+        <v>1.041556484082184</v>
       </c>
       <c r="M24">
-        <v>0.9965809574922198</v>
+        <v>1.050775470188198</v>
       </c>
       <c r="N24">
-        <v>1.002687129998732</v>
+        <v>1.015622813777985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9814771512002566</v>
+        <v>1.031244004210015</v>
       </c>
       <c r="D25">
-        <v>1.003163406324542</v>
+        <v>1.033880286071674</v>
       </c>
       <c r="E25">
-        <v>0.9953561060385528</v>
+        <v>1.040262567370642</v>
       </c>
       <c r="F25">
-        <v>0.9947540089769867</v>
+        <v>1.049951249118706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03646482175273</v>
+        <v>1.031125504733481</v>
       </c>
       <c r="J25">
-        <v>1.006644377147242</v>
+        <v>1.036864378843645</v>
       </c>
       <c r="K25">
-        <v>1.015712812171467</v>
+        <v>1.0369388607175</v>
       </c>
       <c r="L25">
-        <v>1.008026942794998</v>
+        <v>1.043301137801981</v>
       </c>
       <c r="M25">
-        <v>1.007434311759283</v>
+        <v>1.052959959230406</v>
       </c>
       <c r="N25">
-        <v>1.005535216478138</v>
+        <v>1.016158601023321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_182/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_182/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032986268198313</v>
+        <v>0.9903706594983713</v>
       </c>
       <c r="D2">
-        <v>1.035166563004088</v>
+        <v>1.009664315124243</v>
       </c>
       <c r="E2">
-        <v>1.041911371863755</v>
+        <v>1.003338966079621</v>
       </c>
       <c r="F2">
-        <v>1.051950751342542</v>
+        <v>1.004260359649285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031427523257402</v>
+        <v>1.038578738747806</v>
       </c>
       <c r="J2">
-        <v>1.038113475487467</v>
+        <v>1.012843247202266</v>
       </c>
       <c r="K2">
-        <v>1.037963946410103</v>
+        <v>1.020990632804571</v>
       </c>
       <c r="L2">
-        <v>1.044689548032033</v>
+        <v>1.01475197897824</v>
       </c>
       <c r="M2">
-        <v>1.054700832904487</v>
+        <v>1.015660658283057</v>
       </c>
       <c r="N2">
-        <v>1.01658377132681</v>
+        <v>1.007683926016494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034249849746943</v>
+        <v>0.9965788578725959</v>
       </c>
       <c r="D3">
-        <v>1.036098652130245</v>
+        <v>1.014207458274742</v>
       </c>
       <c r="E3">
-        <v>1.043108013993592</v>
+        <v>1.008925997136965</v>
       </c>
       <c r="F3">
-        <v>1.05340289474558</v>
+        <v>1.010916460091127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031643089641752</v>
+        <v>1.040028317805298</v>
       </c>
       <c r="J3">
-        <v>1.039017988224845</v>
+        <v>1.017163223159364</v>
       </c>
       <c r="K3">
-        <v>1.038705047700663</v>
+        <v>1.024661722972775</v>
       </c>
       <c r="L3">
-        <v>1.045695902418718</v>
+        <v>1.019445928023962</v>
       </c>
       <c r="M3">
-        <v>1.055964082948603</v>
+        <v>1.021411542503139</v>
       </c>
       <c r="N3">
-        <v>1.016891237323633</v>
+        <v>1.009179755425044</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035066822276832</v>
+        <v>1.000489646661612</v>
       </c>
       <c r="D4">
-        <v>1.036700926404075</v>
+        <v>1.017071008747534</v>
       </c>
       <c r="E4">
-        <v>1.043882093511119</v>
+        <v>1.012451825244754</v>
       </c>
       <c r="F4">
-        <v>1.054342707907252</v>
+        <v>1.015118617637925</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031780855164349</v>
+        <v>1.040929000861654</v>
       </c>
       <c r="J4">
-        <v>1.0396021543089</v>
+        <v>1.019880835515513</v>
       </c>
       <c r="K4">
-        <v>1.039183119822329</v>
+        <v>1.026967676748649</v>
       </c>
       <c r="L4">
-        <v>1.046346287273835</v>
+        <v>1.022402255184188</v>
       </c>
       <c r="M4">
-        <v>1.056781153963136</v>
+        <v>1.02503793540318</v>
       </c>
       <c r="N4">
-        <v>1.017089616823679</v>
+        <v>1.010119927587237</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035410125374846</v>
+        <v>1.002109516202666</v>
       </c>
       <c r="D5">
-        <v>1.036953920535579</v>
+        <v>1.018257400716188</v>
       </c>
       <c r="E5">
-        <v>1.044207464577027</v>
+        <v>1.013913711098219</v>
       </c>
       <c r="F5">
-        <v>1.054737851951341</v>
+        <v>1.016861375873942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031838360383018</v>
+        <v>1.04129901831863</v>
       </c>
       <c r="J5">
-        <v>1.039847473061321</v>
+        <v>1.021005541251372</v>
       </c>
       <c r="K5">
-        <v>1.039383750886628</v>
+        <v>1.027921153462934</v>
       </c>
       <c r="L5">
-        <v>1.046619521412014</v>
+        <v>1.023626597006853</v>
       </c>
       <c r="M5">
-        <v>1.057124573293156</v>
+        <v>1.026540863195152</v>
       </c>
       <c r="N5">
-        <v>1.017172879321063</v>
+        <v>1.010508815246248</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035467758648192</v>
+        <v>1.002380112927654</v>
       </c>
       <c r="D6">
-        <v>1.036996387561658</v>
+        <v>1.018455600139382</v>
       </c>
       <c r="E6">
-        <v>1.044262092839255</v>
+        <v>1.014158001844126</v>
       </c>
       <c r="F6">
-        <v>1.054804201213736</v>
+        <v>1.01715263021415</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03184799165006</v>
+        <v>1.041360648099506</v>
       </c>
       <c r="J6">
-        <v>1.039888647698626</v>
+        <v>1.02119336461608</v>
       </c>
       <c r="K6">
-        <v>1.03941741721646</v>
+        <v>1.028080330442271</v>
       </c>
       <c r="L6">
-        <v>1.046665387690506</v>
+        <v>1.023831109273674</v>
       </c>
       <c r="M6">
-        <v>1.05718223046745</v>
+        <v>1.026791974584268</v>
       </c>
       <c r="N6">
-        <v>1.017186851488328</v>
+        <v>1.010573745913852</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035071410103421</v>
+        <v>1.000511385067676</v>
       </c>
       <c r="D7">
-        <v>1.036704307715875</v>
+        <v>1.017086928915557</v>
       </c>
       <c r="E7">
-        <v>1.043886441336164</v>
+        <v>1.012471437788188</v>
       </c>
       <c r="F7">
-        <v>1.054347987653668</v>
+        <v>1.015141996492832</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031781625167898</v>
+        <v>1.040933978582791</v>
       </c>
       <c r="J7">
-        <v>1.0396054333075</v>
+        <v>1.019895932699387</v>
       </c>
       <c r="K7">
-        <v>1.039185802039688</v>
+        <v>1.026980478932696</v>
       </c>
       <c r="L7">
-        <v>1.046349938976186</v>
+        <v>1.022418686457341</v>
       </c>
       <c r="M7">
-        <v>1.056785743048924</v>
+        <v>1.025058101115488</v>
       </c>
       <c r="N7">
-        <v>1.017090729915865</v>
+        <v>1.010125148563235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033413437897558</v>
+        <v>0.992491534634467</v>
       </c>
       <c r="D8">
-        <v>1.035481743704682</v>
+        <v>1.011215955829992</v>
       </c>
       <c r="E8">
-        <v>1.042315831448132</v>
+        <v>1.005246267792861</v>
       </c>
       <c r="F8">
-        <v>1.05244147509615</v>
+        <v>1.00653230195431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031500731404686</v>
+        <v>1.039076538515687</v>
       </c>
       <c r="J8">
-        <v>1.038419391733524</v>
+        <v>1.014319806351473</v>
       </c>
       <c r="K8">
-        <v>1.038214710308395</v>
+        <v>1.022246113289658</v>
       </c>
       <c r="L8">
-        <v>1.045029815980832</v>
+        <v>1.016355640921889</v>
       </c>
       <c r="M8">
-        <v>1.055127825702143</v>
+        <v>1.017624510161989</v>
       </c>
       <c r="N8">
-        <v>1.016687799600382</v>
+        <v>1.008195363754398</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030486759789462</v>
+        <v>0.97748489632643</v>
       </c>
       <c r="D9">
-        <v>1.033320856116463</v>
+        <v>1.00024860711789</v>
       </c>
       <c r="E9">
-        <v>1.039546352888951</v>
+        <v>0.9917803791926396</v>
       </c>
       <c r="F9">
-        <v>1.049083164722806</v>
+        <v>0.9904968413300638</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030992564562541</v>
+        <v>1.035503291119097</v>
       </c>
       <c r="J9">
-        <v>1.036320809255022</v>
+        <v>1.003858564362083</v>
       </c>
       <c r="K9">
-        <v>1.036492198446624</v>
+        <v>1.013337652132235</v>
       </c>
       <c r="L9">
-        <v>1.042697405241559</v>
+        <v>1.005008236751085</v>
       </c>
       <c r="M9">
-        <v>1.052203645993665</v>
+        <v>1.003746005606542</v>
       </c>
       <c r="N9">
-        <v>1.0159733808226</v>
+        <v>1.004568865621442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028531991541223</v>
+        <v>0.9667993214677097</v>
       </c>
       <c r="D10">
-        <v>1.031875749828289</v>
+        <v>0.9924594877395225</v>
       </c>
       <c r="E10">
-        <v>1.03769861467391</v>
+        <v>0.9822326259246061</v>
       </c>
       <c r="F10">
-        <v>1.046844871277783</v>
+        <v>0.9791305739467672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030644884502886</v>
+        <v>1.032896785506723</v>
       </c>
       <c r="J10">
-        <v>1.034915823005265</v>
+        <v>0.9963950588720099</v>
       </c>
       <c r="K10">
-        <v>1.035336148870178</v>
+        <v>1.006966236342565</v>
       </c>
       <c r="L10">
-        <v>1.041138155255976</v>
+        <v>0.9969302608794485</v>
       </c>
       <c r="M10">
-        <v>1.050252164685198</v>
+        <v>0.9938871405400553</v>
       </c>
       <c r="N10">
-        <v>1.015494102358212</v>
+        <v>1.001978309257245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02768464283048</v>
+        <v>0.9619870225471168</v>
       </c>
       <c r="D11">
-        <v>1.031248910058366</v>
+        <v>0.9889583584824859</v>
       </c>
       <c r="E11">
-        <v>1.036898149275331</v>
+        <v>0.97794346894073</v>
       </c>
       <c r="F11">
-        <v>1.04587575080701</v>
+        <v>0.9740242929416476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030492216656582</v>
+        <v>1.031709200762064</v>
       </c>
       <c r="J11">
-        <v>1.034306011602713</v>
+        <v>0.9930313856980589</v>
       </c>
       <c r="K11">
-        <v>1.034833716521374</v>
+        <v>1.004091551927357</v>
       </c>
       <c r="L11">
-        <v>1.040461926432175</v>
+        <v>0.9932936810904883</v>
       </c>
       <c r="M11">
-        <v>1.04940662531169</v>
+        <v>0.9894532811570925</v>
       </c>
       <c r="N11">
-        <v>1.015285849282287</v>
+        <v>1.000810225758213</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0273697572679</v>
+        <v>0.9601693786891743</v>
       </c>
       <c r="D12">
-        <v>1.031015906710282</v>
+        <v>0.9876371461996003</v>
       </c>
       <c r="E12">
-        <v>1.036600759969368</v>
+        <v>0.9763251295041592</v>
       </c>
       <c r="F12">
-        <v>1.045515783050175</v>
+        <v>0.9720975223014816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030435189827482</v>
+        <v>1.031258671496937</v>
       </c>
       <c r="J12">
-        <v>1.034079281008213</v>
+        <v>0.9917606246453127</v>
       </c>
       <c r="K12">
-        <v>1.034646810066543</v>
+        <v>1.003005094627631</v>
       </c>
       <c r="L12">
-        <v>1.040210582155036</v>
+        <v>0.9919204064503158</v>
       </c>
       <c r="M12">
-        <v>1.0490924699562</v>
+        <v>0.9877795511335937</v>
       </c>
       <c r="N12">
-        <v>1.015208385493123</v>
+        <v>1.000368869931502</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027437307805962</v>
+        <v>0.9605606730351586</v>
       </c>
       <c r="D13">
-        <v>1.03106589431551</v>
+        <v>0.9879215140675103</v>
       </c>
       <c r="E13">
-        <v>1.036664553790902</v>
+        <v>0.9766734396052881</v>
       </c>
       <c r="F13">
-        <v>1.045592997124983</v>
+        <v>0.9725122222230612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030447436730971</v>
+        <v>1.031355746756056</v>
       </c>
       <c r="J13">
-        <v>1.034127925465872</v>
+        <v>0.9920341993001475</v>
       </c>
       <c r="K13">
-        <v>1.034686914870197</v>
+        <v>1.003239010253071</v>
       </c>
       <c r="L13">
-        <v>1.040264503770864</v>
+        <v>0.9922160243981568</v>
       </c>
       <c r="M13">
-        <v>1.049159861229268</v>
+        <v>0.9881398194475721</v>
       </c>
       <c r="N13">
-        <v>1.015225006698938</v>
+        <v>1.000463889485916</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027658617223031</v>
+        <v>0.9618374045792166</v>
       </c>
       <c r="D14">
-        <v>1.031229653350332</v>
+        <v>0.9888495786172351</v>
       </c>
       <c r="E14">
-        <v>1.036873568242548</v>
+        <v>0.9778102212715294</v>
       </c>
       <c r="F14">
-        <v>1.04584599564912</v>
+        <v>0.9738656533294276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03048750931647</v>
+        <v>1.031672155177508</v>
       </c>
       <c r="J14">
-        <v>1.034287274474085</v>
+        <v>0.9929267889825618</v>
       </c>
       <c r="K14">
-        <v>1.0348182725134</v>
+        <v>1.004002133761362</v>
       </c>
       <c r="L14">
-        <v>1.040441153574154</v>
+        <v>0.9931806346263738</v>
       </c>
       <c r="M14">
-        <v>1.049380658876586</v>
+        <v>0.9893154892516434</v>
       </c>
       <c r="N14">
-        <v>1.015279448336148</v>
+        <v>1.000773898855337</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027794954249461</v>
+        <v>0.9626199740810699</v>
       </c>
       <c r="D15">
-        <v>1.031330528487545</v>
+        <v>0.989418596017215</v>
       </c>
       <c r="E15">
-        <v>1.037002340785579</v>
+        <v>0.9785072368726278</v>
       </c>
       <c r="F15">
-        <v>1.046001877144919</v>
+        <v>0.9746954880490968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030512157042455</v>
+        <v>1.03186584079116</v>
       </c>
       <c r="J15">
-        <v>1.034385425492527</v>
+        <v>0.9934738664120845</v>
       </c>
       <c r="K15">
-        <v>1.034899169036536</v>
+        <v>1.004469804828995</v>
       </c>
       <c r="L15">
-        <v>1.040549971686759</v>
+        <v>0.9937719310004113</v>
       </c>
       <c r="M15">
-        <v>1.049516688292806</v>
+        <v>0.9900362430678151</v>
       </c>
       <c r="N15">
-        <v>1.015312977115036</v>
+        <v>1.000963898705201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028588207524672</v>
+        <v>0.9671146023747518</v>
       </c>
       <c r="D16">
-        <v>1.031917327789619</v>
+        <v>0.9926890210198676</v>
       </c>
       <c r="E16">
-        <v>1.037751730581286</v>
+        <v>0.9825138632460177</v>
       </c>
       <c r="F16">
-        <v>1.046909189808487</v>
+        <v>0.9794653779244595</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030654971839827</v>
+        <v>1.032974313892464</v>
       </c>
       <c r="J16">
-        <v>1.034956263547091</v>
+        <v>0.9966153889964171</v>
       </c>
       <c r="K16">
-        <v>1.035369454393803</v>
+        <v>1.007154474090835</v>
       </c>
       <c r="L16">
-        <v>1.041183011674851</v>
+        <v>0.9971685491925363</v>
       </c>
       <c r="M16">
-        <v>1.050308268734535</v>
+        <v>0.9941777591858704</v>
       </c>
       <c r="N16">
-        <v>1.015507908141915</v>
+        <v>1.002054811895275</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029085544816272</v>
+        <v>0.9698827936019957</v>
       </c>
       <c r="D17">
-        <v>1.032285115788914</v>
+        <v>0.9947051237320367</v>
       </c>
       <c r="E17">
-        <v>1.03822169822583</v>
+        <v>0.9849843727589692</v>
       </c>
       <c r="F17">
-        <v>1.047478340015742</v>
+        <v>0.9824064081069285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030743987707263</v>
+        <v>1.033653476294763</v>
       </c>
       <c r="J17">
-        <v>1.035313946934432</v>
+        <v>0.9985496383012573</v>
       </c>
       <c r="K17">
-        <v>1.035663953876544</v>
+        <v>1.008806632637948</v>
       </c>
       <c r="L17">
-        <v>1.041579814122967</v>
+        <v>0.9992609042732468</v>
       </c>
       <c r="M17">
-        <v>1.050804660159568</v>
+        <v>0.9967301129262461</v>
       </c>
       <c r="N17">
-        <v>1.015629989270733</v>
+        <v>1.002726356869859</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029375544646529</v>
+        <v>0.971479714276453</v>
       </c>
       <c r="D18">
-        <v>1.032499534385756</v>
+        <v>0.9958688002285058</v>
       </c>
       <c r="E18">
-        <v>1.038495785717937</v>
+        <v>0.9864105692583797</v>
       </c>
       <c r="F18">
-        <v>1.047810323285475</v>
+        <v>0.9841042194698284</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030795704645442</v>
+        <v>1.034043972542331</v>
       </c>
       <c r="J18">
-        <v>1.035522438548721</v>
+        <v>0.9996652354272697</v>
       </c>
       <c r="K18">
-        <v>1.035835551572518</v>
+        <v>1.009759226633992</v>
       </c>
       <c r="L18">
-        <v>1.041811159892211</v>
+        <v>1.000468070690492</v>
       </c>
       <c r="M18">
-        <v>1.051094145522812</v>
+        <v>0.9982030943813801</v>
       </c>
       <c r="N18">
-        <v>1.015701127487368</v>
+        <v>1.003113622522008</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029474412190899</v>
+        <v>0.9720212831472913</v>
       </c>
       <c r="D19">
-        <v>1.032572627680166</v>
+        <v>0.996263542088947</v>
       </c>
       <c r="E19">
-        <v>1.038589236347893</v>
+        <v>0.9868944072613858</v>
       </c>
       <c r="F19">
-        <v>1.047923522425471</v>
+        <v>0.9846802037156629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030813304116361</v>
+        <v>1.03417617950454</v>
       </c>
       <c r="J19">
-        <v>1.035593505295812</v>
+        <v>1.000043528625147</v>
       </c>
       <c r="K19">
-        <v>1.035894031672245</v>
+        <v>1.010082193256291</v>
       </c>
       <c r="L19">
-        <v>1.041890025545902</v>
+        <v>1.00087747954893</v>
       </c>
       <c r="M19">
-        <v>1.051192843959849</v>
+        <v>0.9987027271368378</v>
       </c>
       <c r="N19">
-        <v>1.015725371992653</v>
+        <v>1.003244932518668</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02903219442696</v>
+        <v>0.9695876413396002</v>
       </c>
       <c r="D20">
-        <v>1.032245666588642</v>
+        <v>0.9944900953626442</v>
       </c>
       <c r="E20">
-        <v>1.038171278965073</v>
+        <v>0.9847208552752762</v>
       </c>
       <c r="F20">
-        <v>1.047417274835204</v>
+        <v>0.9820927042333395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030734458305938</v>
+        <v>1.03358119655675</v>
       </c>
       <c r="J20">
-        <v>1.035275585295484</v>
+        <v>0.9983434272520715</v>
       </c>
       <c r="K20">
-        <v>1.035632375385696</v>
+        <v>1.0086305266902</v>
       </c>
       <c r="L20">
-        <v>1.041537251588855</v>
+        <v>0.9990377981236676</v>
       </c>
       <c r="M20">
-        <v>1.050751407399767</v>
+        <v>0.9964579139095943</v>
       </c>
       <c r="N20">
-        <v>1.015616898330354</v>
+        <v>1.002654768733233</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027593451083292</v>
+        <v>0.961462290704945</v>
       </c>
       <c r="D21">
-        <v>1.031181435026421</v>
+        <v>0.9885768715910599</v>
       </c>
       <c r="E21">
-        <v>1.03681202040183</v>
+        <v>0.977476177959323</v>
       </c>
       <c r="F21">
-        <v>1.045771493740565</v>
+        <v>0.9734679517445618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03047571775557</v>
+        <v>1.031579245196822</v>
       </c>
       <c r="J21">
-        <v>1.034240356243374</v>
+        <v>0.9926645458068976</v>
       </c>
       <c r="K21">
-        <v>1.034779598726402</v>
+        <v>1.003777939233993</v>
       </c>
       <c r="L21">
-        <v>1.040389139128025</v>
+        <v>0.9928972157750647</v>
       </c>
       <c r="M21">
-        <v>1.049315641834275</v>
+        <v>0.9889700408900615</v>
       </c>
       <c r="N21">
-        <v>1.015263419655261</v>
+        <v>1.00068281964388</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026688029385771</v>
+        <v>0.9561778404234035</v>
       </c>
       <c r="D22">
-        <v>1.030511342336554</v>
+        <v>0.9847381800494981</v>
       </c>
       <c r="E22">
-        <v>1.035957047063707</v>
+        <v>0.9727745317883433</v>
       </c>
       <c r="F22">
-        <v>1.044736762533317</v>
+        <v>0.9678698957648104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030311190209265</v>
+        <v>1.03026579250567</v>
       </c>
       <c r="J22">
-        <v>1.033588195423617</v>
+        <v>0.9889696425099513</v>
       </c>
       <c r="K22">
-        <v>1.034241799104545</v>
+        <v>1.000618162998691</v>
       </c>
       <c r="L22">
-        <v>1.039666331929625</v>
+        <v>0.9889053368223646</v>
       </c>
       <c r="M22">
-        <v>1.048412428824665</v>
+        <v>0.9841059065613201</v>
       </c>
       <c r="N22">
-        <v>1.015040540665039</v>
+        <v>0.9993994172032646</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027168090298826</v>
+        <v>0.95899671775575</v>
       </c>
       <c r="D23">
-        <v>1.030866663584071</v>
+        <v>0.9867851202214547</v>
       </c>
       <c r="E23">
-        <v>1.036410319236707</v>
+        <v>0.9752815457822889</v>
       </c>
       <c r="F23">
-        <v>1.045285291181911</v>
+        <v>0.9708550000539331</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030398584684002</v>
+        <v>1.030967467943059</v>
       </c>
       <c r="J23">
-        <v>1.033934039609305</v>
+        <v>0.9909407224625909</v>
       </c>
       <c r="K23">
-        <v>1.034527051563045</v>
+        <v>1.002303991182904</v>
       </c>
       <c r="L23">
-        <v>1.040049596134669</v>
+        <v>0.9910345254033253</v>
       </c>
       <c r="M23">
-        <v>1.04889128693413</v>
+        <v>0.9867000186054584</v>
       </c>
       <c r="N23">
-        <v>1.01515875329685</v>
+        <v>1.000084088549679</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029056301445025</v>
+        <v>0.9697210625278466</v>
       </c>
       <c r="D24">
-        <v>1.032263492311452</v>
+        <v>0.9945872952753843</v>
       </c>
       <c r="E24">
-        <v>1.038194061371979</v>
+        <v>0.9848399731110954</v>
       </c>
       <c r="F24">
-        <v>1.047444867538138</v>
+        <v>0.9822345078562342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030738764864118</v>
+        <v>1.033613874071334</v>
       </c>
       <c r="J24">
-        <v>1.035292919698437</v>
+        <v>0.9984366440289167</v>
       </c>
       <c r="K24">
-        <v>1.035646644899073</v>
+        <v>1.008710135540644</v>
       </c>
       <c r="L24">
-        <v>1.041556484082184</v>
+        <v>0.9991386510727159</v>
       </c>
       <c r="M24">
-        <v>1.050775470188198</v>
+        <v>0.9965809574922185</v>
       </c>
       <c r="N24">
-        <v>1.015622813777985</v>
+        <v>1.002687129998732</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031244004210015</v>
+        <v>0.9814771512002567</v>
       </c>
       <c r="D25">
-        <v>1.033880286071674</v>
+        <v>1.003163406324541</v>
       </c>
       <c r="E25">
-        <v>1.040262567370642</v>
+        <v>0.9953561060385531</v>
       </c>
       <c r="F25">
-        <v>1.049951249118706</v>
+        <v>0.9947540089769871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031125504733481</v>
+        <v>1.03646482175273</v>
       </c>
       <c r="J25">
-        <v>1.036864378843645</v>
+        <v>1.006644377147242</v>
       </c>
       <c r="K25">
-        <v>1.0369388607175</v>
+        <v>1.015712812171467</v>
       </c>
       <c r="L25">
-        <v>1.043301137801981</v>
+        <v>1.008026942794998</v>
       </c>
       <c r="M25">
-        <v>1.052959959230406</v>
+        <v>1.007434311759283</v>
       </c>
       <c r="N25">
-        <v>1.016158601023321</v>
+        <v>1.005535216478139</v>
       </c>
     </row>
   </sheetData>
